--- a/Utilities/systemConfig.xlsx
+++ b/Utilities/systemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MSE-KKT" sheetId="1" r:id="rId1"/>
@@ -575,7 +575,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -1711,7 +1711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/Utilities/systemConfig.xlsx
+++ b/Utilities/systemConfig.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="MSE-KKT" sheetId="1" r:id="rId1"/>
-    <sheet name="CVX" sheetId="2" r:id="rId2"/>
-    <sheet name="ADMM-WOS" sheetId="3" r:id="rId3"/>
-    <sheet name="ADMM-WS" sheetId="4" r:id="rId4"/>
+    <sheet name="KKT" sheetId="1" r:id="rId1"/>
+    <sheet name="TDM" sheetId="2" r:id="rId2"/>
+    <sheet name="GROUP" sheetId="5" r:id="rId3"/>
+    <sheet name="ADMM-WOS" sheetId="3" r:id="rId4"/>
+    <sheet name="ADMM-WS" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="52">
   <si>
     <t>SkipScheduling</t>
   </si>
@@ -52,9 +53,6 @@
     <t>10-OTA (sel)</t>
   </si>
   <si>
-    <t>distMSEAllocA</t>
-  </si>
-  <si>
     <t>SchedType</t>
   </si>
   <si>
@@ -85,12 +83,6 @@
     <t>LegendName</t>
   </si>
   <si>
-    <t>Centralized-B</t>
-  </si>
-  <si>
-    <t>Centralized-A</t>
-  </si>
-  <si>
     <t>nBases</t>
   </si>
   <si>
@@ -106,9 +98,6 @@
     <t>nTxAntenna</t>
   </si>
   <si>
-    <t>perBSAlloc</t>
-  </si>
-  <si>
     <t>Isolated</t>
   </si>
   <si>
@@ -158,6 +147,33 @@
   </si>
   <si>
     <t>ADMM-3(wm-sel)</t>
+  </si>
+  <si>
+    <t>I-CELL</t>
+  </si>
+  <si>
+    <t>Centralized</t>
+  </si>
+  <si>
+    <t>B-TDM</t>
+  </si>
+  <si>
+    <t>B-TDM (sel)</t>
+  </si>
+  <si>
+    <t>RateCluster</t>
+  </si>
+  <si>
+    <t>RateCluster (sel)</t>
+  </si>
+  <si>
+    <t>R-GROUP</t>
+  </si>
+  <si>
+    <t>GScheduling</t>
+  </si>
+  <si>
+    <t>GScheduling_SP</t>
   </si>
 </sst>
 </file>
@@ -572,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -583,38 +599,35 @@
     <col min="1" max="16384" width="27.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -629,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
@@ -637,71 +650,62 @@
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -724,106 +728,94 @@
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>50</v>
       </c>
       <c r="C7" s="2">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3</v>
-      </c>
       <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="2">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>1E+20</v>
       </c>
-      <c r="C10" s="3">
-        <v>1E+20</v>
+      <c r="C10" s="2">
+        <v>100</v>
       </c>
       <c r="D10" s="2">
         <v>100</v>
@@ -840,13 +832,10 @@
       <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="I10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
@@ -869,130 +858,115 @@
       <c r="H11" s="2">
         <v>500</v>
       </c>
-      <c r="I11" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4</v>
-      </c>
-      <c r="I12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2">
-        <v>16</v>
-      </c>
-      <c r="H14" s="2">
-        <v>16</v>
-      </c>
-      <c r="I14" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -1012,9 +986,6 @@
         <v>4</v>
       </c>
       <c r="H16" s="2">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1027,37 +998,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1:J1048576"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="27.42578125" style="2"/>
+    <col min="1" max="9" width="27.42578125" style="2"/>
     <col min="17" max="16384" width="27.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -1068,24 +1047,36 @@
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1097,46 +1088,82 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <v>50</v>
@@ -1150,10 +1177,18 @@
       <c r="E7" s="4">
         <v>50</v>
       </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
@@ -1164,7 +1199,7 @@
     </row>
     <row r="8" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -1178,10 +1213,18 @@
       <c r="E8" s="4">
         <v>1</v>
       </c>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
@@ -1192,7 +1235,7 @@
     </row>
     <row r="9" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -1206,10 +1249,18 @@
       <c r="E9" s="4">
         <v>1</v>
       </c>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
@@ -1220,24 +1271,36 @@
     </row>
     <row r="10" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
         <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
@@ -1249,12 +1312,24 @@
         <v>500</v>
       </c>
       <c r="E11" s="2">
+        <v>500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>500</v>
+      </c>
+      <c r="I11" s="2">
         <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>4</v>
@@ -1266,12 +1341,24 @@
         <v>4</v>
       </c>
       <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
@@ -1283,12 +1370,24 @@
         <v>2</v>
       </c>
       <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>16</v>
@@ -1300,12 +1399,24 @@
         <v>16</v>
       </c>
       <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
@@ -1317,12 +1428,24 @@
         <v>2</v>
       </c>
       <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>4</v>
@@ -1334,6 +1457,18 @@
         <v>4</v>
       </c>
       <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1344,9 +1479,475 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="27.42578125" style="2"/>
+    <col min="13" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>500</v>
+      </c>
+      <c r="I11" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -1359,30 +1960,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
@@ -1405,7 +2006,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -1428,30 +2029,30 @@
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -1474,7 +2075,7 @@
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>10</v>
@@ -1497,7 +2098,7 @@
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -1520,7 +2121,7 @@
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
@@ -1543,7 +2144,7 @@
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6">
         <v>100</v>
@@ -1566,7 +2167,7 @@
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>500</v>
@@ -1589,7 +2190,7 @@
     </row>
     <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6">
         <v>4</v>
@@ -1612,7 +2213,7 @@
     </row>
     <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6">
         <v>2</v>
@@ -1635,7 +2236,7 @@
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6">
         <v>16</v>
@@ -1658,7 +2259,7 @@
     </row>
     <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6">
         <v>2</v>
@@ -1681,7 +2282,7 @@
     </row>
     <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6">
         <v>4</v>
@@ -1707,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -1724,30 +2325,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
@@ -1770,7 +2371,7 @@
     </row>
     <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>1</v>
@@ -1793,30 +2394,30 @@
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>3</v>
@@ -1839,7 +2440,7 @@
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>10</v>
@@ -1862,7 +2463,7 @@
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6">
         <v>1</v>
@@ -1885,7 +2486,7 @@
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
@@ -1908,7 +2509,7 @@
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6">
         <v>100</v>
@@ -1931,7 +2532,7 @@
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>500</v>
@@ -1954,7 +2555,7 @@
     </row>
     <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6">
         <v>4</v>
@@ -1977,7 +2578,7 @@
     </row>
     <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" s="6">
         <v>2</v>
@@ -2000,7 +2601,7 @@
     </row>
     <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="6">
         <v>16</v>
@@ -2023,7 +2624,7 @@
     </row>
     <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6">
         <v>2</v>
@@ -2046,7 +2647,7 @@
     </row>
     <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="6">
         <v>4</v>

--- a/Utilities/systemConfig.xlsx
+++ b/Utilities/systemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KKT" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,18 @@
     <sheet name="GROUP" sheetId="5" r:id="rId3"/>
     <sheet name="ADMM-WOS" sheetId="3" r:id="rId4"/>
     <sheet name="ADMM-WS" sheetId="4" r:id="rId5"/>
+    <sheet name="MSE-O" sheetId="6" r:id="rId6"/>
+    <sheet name="MSE-NM20-0" sheetId="7" r:id="rId7"/>
+    <sheet name="MSE-NM20-20" sheetId="9" r:id="rId8"/>
+    <sheet name="MSE-WM20-0" sheetId="10" r:id="rId9"/>
+    <sheet name="MSE-WM20-20" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="84">
   <si>
     <t>SkipScheduling</t>
   </si>
@@ -174,13 +179,109 @@
   </si>
   <si>
     <t>GScheduling_SP</t>
+  </si>
+  <si>
+    <t>distMSEAllocC</t>
+  </si>
+  <si>
+    <t>OL (OTA-5,OBH-0)</t>
+  </si>
+  <si>
+    <t>OL (OTA-10,OBH-0)</t>
+  </si>
+  <si>
+    <t>SP (OTA-10,OBH-0)</t>
+  </si>
+  <si>
+    <t>SP (OTA-5,OBH-0)</t>
+  </si>
+  <si>
+    <t>Optimal</t>
+  </si>
+  <si>
+    <t>OL (OTA-3,OBH-0)</t>
+  </si>
+  <si>
+    <t>SP (OTA-3,OBH-0)</t>
+  </si>
+  <si>
+    <t>OL (OTA-3,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OL (OTA-5,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OL (OTA-10,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>FOL (OTA-3,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>FOL (OTA-5,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>FOL (OTA-10,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>FOLO (OTA-3,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>FOLOM (OTA-5,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>FOLOM (OTA-3,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>FOLOM (OTA-10,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>FOLM (OTA-5,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>FOLM (OTA-10,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>FOLM (OTA-3,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>OLM (OTA-3,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLM (OTA-5,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLM (OTA-10,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLOM (OTA-3,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLOM (OTA-5,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLOM (OTA-10,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLO (OTA-3,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLO (OTA-5,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLO (OTA-10,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>FOLO (OTA-5,INT-[20,0])</t>
+  </si>
+  <si>
+    <t>FOLO (OTA-10,INT-[20,0])</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +303,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +326,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -260,12 +373,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,8 +399,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
@@ -591,7 +709,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -994,11 +1112,374 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -1482,7 +1963,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2671,4 +3152,1501 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Utilities/systemConfig.xlsx
+++ b/Utilities/systemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="KKT" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,16 @@
     <sheet name="ADMM-WOS" sheetId="3" r:id="rId4"/>
     <sheet name="ADMM-WS" sheetId="4" r:id="rId5"/>
     <sheet name="MSE-O" sheetId="6" r:id="rId6"/>
-    <sheet name="MSE-NM20-0" sheetId="7" r:id="rId7"/>
-    <sheet name="MSE-NM20-20" sheetId="9" r:id="rId8"/>
-    <sheet name="MSE-WM20-0" sheetId="10" r:id="rId9"/>
-    <sheet name="MSE-WM20-20" sheetId="11" r:id="rId10"/>
+    <sheet name="MSE-C" sheetId="7" r:id="rId7"/>
+    <sheet name="MSE-B" sheetId="9" r:id="rId8"/>
+    <sheet name="MSE-L" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="79">
   <si>
     <t>SkipScheduling</t>
   </si>
@@ -214,36 +213,6 @@
     <t>OL (OTA-10,INT-[20,20])</t>
   </si>
   <si>
-    <t>FOL (OTA-3,INT-[20,0])</t>
-  </si>
-  <si>
-    <t>FOL (OTA-5,INT-[20,0])</t>
-  </si>
-  <si>
-    <t>FOL (OTA-10,INT-[20,0])</t>
-  </si>
-  <si>
-    <t>FOLO (OTA-3,INT-[20,0])</t>
-  </si>
-  <si>
-    <t>FOLOM (OTA-5,INT-[20,0])</t>
-  </si>
-  <si>
-    <t>FOLOM (OTA-3,INT-[20,0])</t>
-  </si>
-  <si>
-    <t>FOLOM (OTA-10,INT-[20,0])</t>
-  </si>
-  <si>
-    <t>FOLM (OTA-5,INT-[20,0])</t>
-  </si>
-  <si>
-    <t>FOLM (OTA-10,INT-[20,0])</t>
-  </si>
-  <si>
-    <t>FOLM (OTA-3,INT-[20,0])</t>
-  </si>
-  <si>
     <t>OLM (OTA-3,INT-[20,20])</t>
   </si>
   <si>
@@ -253,28 +222,43 @@
     <t>OLM (OTA-10,INT-[20,20])</t>
   </si>
   <si>
-    <t>OLOM (OTA-3,INT-[20,20])</t>
-  </si>
-  <si>
-    <t>OLOM (OTA-5,INT-[20,20])</t>
-  </si>
-  <si>
-    <t>OLOM (OTA-10,INT-[20,20])</t>
-  </si>
-  <si>
-    <t>OLO (OTA-3,INT-[20,20])</t>
-  </si>
-  <si>
-    <t>OLO (OTA-5,INT-[20,20])</t>
-  </si>
-  <si>
-    <t>OLO (OTA-10,INT-[20,20])</t>
-  </si>
-  <si>
-    <t>FOLO (OTA-5,INT-[20,0])</t>
-  </si>
-  <si>
-    <t>FOLO (OTA-10,INT-[20,0])</t>
+    <t>E-Optimal</t>
+  </si>
+  <si>
+    <t>OLC (OTA-3,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLC (OTA-5,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLC (OTA-10,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLCM (OTA-3,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLCM (OTA-5,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLCM (OTA-10,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLE (OTA-3,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLE (OTA-5,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLE (OTA-10,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLEM (OTA-3,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLEM (OTA-5,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>OLEM (OTA-10,INT-[20,20])</t>
   </si>
 </sst>
 </file>
@@ -1112,369 +1096,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="27.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5</v>
-      </c>
-      <c r="G7" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7">
-        <v>10</v>
-      </c>
-      <c r="F8" s="7">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>100</v>
-      </c>
-      <c r="D10" s="2">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2">
-        <v>100</v>
-      </c>
-      <c r="F10" s="2">
-        <v>100</v>
-      </c>
-      <c r="G10" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2">
-        <v>500</v>
-      </c>
-      <c r="C11" s="2">
-        <v>500</v>
-      </c>
-      <c r="D11" s="2">
-        <v>500</v>
-      </c>
-      <c r="E11" s="2">
-        <v>500</v>
-      </c>
-      <c r="F11" s="2">
-        <v>500</v>
-      </c>
-      <c r="G11" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>16</v>
-      </c>
-      <c r="D14" s="2">
-        <v>16</v>
-      </c>
-      <c r="E14" s="2">
-        <v>16</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16</v>
-      </c>
-      <c r="G14" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2">
-        <v>4</v>
-      </c>
-      <c r="G16" s="2">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
@@ -3159,7 +2780,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3566,8 +3187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3580,22 +3201,22 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3672,13 +3293,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>57</v>
@@ -3727,13 +3348,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3741,22 +3362,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3930,7 +3551,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3952,13 +3573,13 @@
         <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4044,13 +3665,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4090,13 +3711,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4104,22 +3725,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4292,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4306,22 +3927,22 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4398,22 +4019,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,13 +4065,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E8" s="7">
         <v>10</v>
@@ -4467,22 +4088,22 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Utilities/systemConfig.xlsx
+++ b/Utilities/systemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="KKT" sheetId="1" r:id="rId1"/>
@@ -3187,7 +3187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -3913,7 +3913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>

--- a/Utilities/systemConfig.xlsx
+++ b/Utilities/systemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" tabRatio="429" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KKT" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,16 @@
     <sheet name="MSE-C" sheetId="7" r:id="rId7"/>
     <sheet name="MSE-B" sheetId="9" r:id="rId8"/>
     <sheet name="MSE-L" sheetId="12" r:id="rId9"/>
+    <sheet name="System" sheetId="13" r:id="rId10"/>
+    <sheet name="SModel-A" sheetId="14" r:id="rId11"/>
+    <sheet name="SModel-B" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="91">
   <si>
     <t>SkipScheduling</t>
   </si>
@@ -259,6 +262,42 @@
   </si>
   <si>
     <t>OLEM (OTA-10,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>nTiers</t>
+  </si>
+  <si>
+    <t>nUsersPerCite</t>
+  </si>
+  <si>
+    <t>S-B (OTA-5,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>I-B (OTA-5,INT-[20,20])</t>
+  </si>
+  <si>
+    <t>SP with MSE_C-3</t>
+  </si>
+  <si>
+    <t>SP with MSE_C-5</t>
+  </si>
+  <si>
+    <t>SingleCell MSE_C-3</t>
+  </si>
+  <si>
+    <t>SingleCell MSE_C-5</t>
+  </si>
+  <si>
+    <t>MultiCell MSE_C-3</t>
+  </si>
+  <si>
+    <t>MultiCell MSE_C-5</t>
+  </si>
+  <si>
+    <t>Gscheduling_I-CELL</t>
+  </si>
+  <si>
+    <t>Gscheduling_TDM</t>
   </si>
 </sst>
 </file>
@@ -1096,13 +1135,928 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>250</v>
+      </c>
+      <c r="C11" s="2">
+        <v>250</v>
+      </c>
+      <c r="D11" s="2">
+        <v>250</v>
+      </c>
+      <c r="E11" s="2">
+        <v>250</v>
+      </c>
+      <c r="F11" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>500</v>
+      </c>
+      <c r="D11" s="2">
+        <v>500</v>
+      </c>
+      <c r="E11" s="2">
+        <v>500</v>
+      </c>
+      <c r="F11" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1584,7 +2538,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2780,7 +3734,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3187,8 +4141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3914,7 +4868,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Utilities/systemConfig.xlsx
+++ b/Utilities/systemConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" tabRatio="429" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625" tabRatio="654" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="KKT" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="System" sheetId="13" r:id="rId10"/>
     <sheet name="SModel-A" sheetId="14" r:id="rId11"/>
     <sheet name="SModel-B" sheetId="15" r:id="rId12"/>
+    <sheet name="ICC-A" sheetId="16" r:id="rId13"/>
+    <sheet name="ICC-B" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="103">
   <si>
     <t>SkipScheduling</t>
   </si>
@@ -298,13 +300,49 @@
   </si>
   <si>
     <t>Gscheduling_TDM</t>
+  </si>
+  <si>
+    <t>Best_QwtWSRMD_Method</t>
+  </si>
+  <si>
+    <t>MSEKKTMethod</t>
+  </si>
+  <si>
+    <t>MSE (OTA-3 with Mem)</t>
+  </si>
+  <si>
+    <t>MSE (OTA-5 with Mem)</t>
+  </si>
+  <si>
+    <t>MSE-SP (OTA-3 with Mem)</t>
+  </si>
+  <si>
+    <t>MSE-SP (OTA-5 with Mem)</t>
+  </si>
+  <si>
+    <t>Strategy A (OTA-3)</t>
+  </si>
+  <si>
+    <t>Strategy A (OTA-5)</t>
+  </si>
+  <si>
+    <t>Strategy B (OTA-3)</t>
+  </si>
+  <si>
+    <t>Strategy B (OTA-5)</t>
+  </si>
+  <si>
+    <t>Strategy C (OTA-3)</t>
+  </si>
+  <si>
+    <t>Strategy C (OTA-5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,8 +371,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +399,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -396,13 +446,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -425,8 +476,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,7 +1193,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1458,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1506,10 +1559,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -1523,10 +1576,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>52</v>
@@ -2050,13 +2103,790 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="13" width="27.42578125" style="2"/>
+    <col min="21" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1E+20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>250</v>
+      </c>
+      <c r="C11" s="2">
+        <v>250</v>
+      </c>
+      <c r="D11" s="2">
+        <v>250</v>
+      </c>
+      <c r="E11" s="2">
+        <v>250</v>
+      </c>
+      <c r="F11" s="2">
+        <v>250</v>
+      </c>
+      <c r="G11" s="2">
+        <v>250</v>
+      </c>
+      <c r="H11" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2">
+        <v>250</v>
+      </c>
+      <c r="C11" s="2">
+        <v>250</v>
+      </c>
+      <c r="D11" s="2">
+        <v>250</v>
+      </c>
+      <c r="E11" s="2">
+        <v>250</v>
+      </c>
+      <c r="F11" s="2">
+        <v>250</v>
+      </c>
+      <c r="G11" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="1" sqref="B1:B1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3734,7 +4564,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4142,7 +4972,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4505,7 +5335,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4868,7 +5698,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
